--- a/Eviews/PBI_update New Base.xlsx
+++ b/Eviews/PBI_update New Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CESAR\Documents\GitHub\Financial_Programming_BO\Eviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77AFCF4-D583-4C4A-B620-18690FCDE2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618E48A5-1B0E-4E03-8839-F9D58FA8BF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{69B9C64A-2B05-487D-9545-CFCB69713DDD}"/>
   </bookViews>
@@ -19,7 +19,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_A" localSheetId="0" hidden="1">'[1]Prod. Agrícolas de Exportación'!#REF!</definedName>
@@ -407,11 +406,11 @@
     <numFmt numFmtId="164" formatCode="#,##0\ ;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00000000\ ;\(#,##0.00000000\)"/>
-    <numFmt numFmtId="174" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.00\ ;\(#,##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00000000\ ;\(#,##0.00000000\)"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
+    <numFmt numFmtId="171" formatCode="#,##0.00\ ;\(#,##0.00\)"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -965,7 +964,7 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -986,7 +985,7 @@
     <xf numFmtId="164" fontId="22" fillId="9" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="22" fillId="9" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="9" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1004,10 +1003,10 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1029,7 +1028,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -3832,22 +3831,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="2.7.1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -6019,8 +6002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C216113-D86D-47CB-85D2-A7148EC34C4B}">
   <dimension ref="A1:AU54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH34" workbookViewId="0">
-      <selection activeCell="AQ56" sqref="AQ56"/>
+    <sheetView tabSelected="1" topLeftCell="Y27" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7837,7 +7820,7 @@
         <v>48188730.162800297</v>
       </c>
       <c r="AO47" s="52">
-        <f>+AO46*(1+AI47/100)</f>
+        <f t="shared" ref="AO47:AO53" si="6">+AO46*(1+AI47/100)</f>
         <v>47561984.288166188</v>
       </c>
       <c r="AP47" s="50">
@@ -7878,7 +7861,7 @@
         <v>49256932.528424755</v>
       </c>
       <c r="AO48" s="52">
-        <f>+AO47*(1+AI48/100)</f>
+        <f t="shared" si="6"/>
         <v>48278610.718225487</v>
       </c>
       <c r="AP48" s="50">
@@ -7919,7 +7902,7 @@
         <v>44952918.688361891</v>
       </c>
       <c r="AO49" s="52">
-        <f>+AO48*(1+AI49/100)</f>
+        <f t="shared" si="6"/>
         <v>42137827.78886243</v>
       </c>
       <c r="AP49" s="50">
@@ -7960,7 +7943,7 @@
         <v>47700159.112336971</v>
       </c>
       <c r="AO50" s="52">
-        <f>+AO49*(1+AI50/100)</f>
+        <f t="shared" si="6"/>
         <v>46363851.125451252</v>
       </c>
       <c r="AP50" s="50">
@@ -8001,7 +7984,7 @@
         <v>49420074.392012402</v>
       </c>
       <c r="AO51" s="52">
-        <f>+AO50*(1+AI51/100)</f>
+        <f t="shared" si="6"/>
         <v>48101298.348817989</v>
       </c>
       <c r="AP51" s="50">
@@ -8028,7 +8011,7 @@
         <v>2.516365898262074</v>
       </c>
       <c r="AJ52" s="42">
-        <f t="shared" ref="AJ52:AJ53" si="6">+AF53/(1+AG53/100)</f>
+        <f t="shared" ref="AJ52:AJ53" si="7">+AF53/(1+AG53/100)</f>
         <v>50943183.906786539</v>
       </c>
       <c r="AK52" s="42">
@@ -8042,7 +8025,7 @@
         <v>50943183.906786539</v>
       </c>
       <c r="AO52" s="52">
-        <f>+AO51*(1+AI52/100)</f>
+        <f t="shared" si="6"/>
         <v>49311703.017088942</v>
       </c>
       <c r="AP52" s="50">
@@ -8069,7 +8052,7 @@
         <v>-1.1233559578784247</v>
       </c>
       <c r="AJ53" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK53" s="42">
@@ -8083,7 +8066,7 @@
         <v>51314663.426584363</v>
       </c>
       <c r="AO53" s="52">
-        <f>+AO52*(1+AI53/100)</f>
+        <f t="shared" si="6"/>
         <v>48757757.063315161</v>
       </c>
       <c r="AP53" s="50">
